--- a/data/vertices.xlsx
+++ b/data/vertices.xlsx
@@ -30,7 +30,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,12 +41,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -78,12 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -391,15 +382,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -468,124 +459,14 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="2">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-      <c r="C17" s="2">
         <v>1</v>
       </c>
     </row>

--- a/data/vertices.xlsx
+++ b/data/vertices.xlsx
@@ -72,9 +72,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -382,15 +385,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -420,10 +423,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
         <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -431,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -453,21 +456,32 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2">
         <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/vertices.xlsx
+++ b/data/vertices.xlsx
@@ -30,7 +30,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +41,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -77,7 +83,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -423,10 +429,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -445,10 +451,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -456,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -467,10 +473,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -478,10 +484,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
         <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
